--- a/premise/data/additional_inventories/lci-co-firing-power-plants.xlsx
+++ b/premise/data/additional_inventories/lci-co-firing-power-plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D296F1-0EB2-DC4C-95A8-95EDD75F6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D0796-2860-BB46-AAFD-92CAC18556FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="460" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carma CCS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="235">
   <si>
     <t>Database</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>electricity production, at co-firing wood and coal power plant, 80-20</t>
+  </si>
+  <si>
+    <t>hard coal</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1283,6 +1286,9 @@
       <c r="G14" t="s">
         <v>158</v>
       </c>
+      <c r="H14" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4762,6 +4768,9 @@
       </c>
       <c r="G183" t="s">
         <v>158</v>
+      </c>
+      <c r="H183" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
